--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_闪电组.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_闪电组.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="版本3.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本3.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -160,6 +160,30 @@
   </si>
   <si>
     <t>租金宝统计报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛对底层进行了优化，目前压测测不出效果，需要前端同时优化，下个版本完善</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -910,7 +934,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -931,7 +955,7 @@
     <col min="15" max="15" width="9.625" style="20" customWidth="1"/>
     <col min="16" max="16" width="12.125" style="23" customWidth="1"/>
     <col min="17" max="18" width="17.625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="48.5" style="20" customWidth="1"/>
+    <col min="19" max="19" width="62.375" style="20" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
@@ -1027,10 +1051,18 @@
       <c r="K2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42451</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="32"/>
@@ -1076,7 +1108,9 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="32"/>
-      <c r="S3" s="18"/>
+      <c r="S3" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1111,10 +1145,18 @@
       <c r="K4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="L4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42451</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="32"/>
@@ -1153,10 +1195,18 @@
       <c r="K5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="L5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42451</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="32"/>
